--- a/Data/EC/NIT-9011915140.xlsx
+++ b/Data/EC/NIT-9011915140.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A213A28-F572-472C-80B4-6890940F4CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D57A5D5-829F-4E7F-87A6-22A89A27D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30250090-1576-4EEE-B88F-9ECC2C735070}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73302648-84EB-4FC2-A5C3-FCC8D8810BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,159 @@
     <t>TERRA BUNKERING SHIPPING S.A.S</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>73352285</t>
+  </si>
+  <si>
+    <t>JESUS GONZALO VANEGAS GOMEZ</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1143338170</t>
+  </si>
+  <si>
+    <t>JAMER ADRIAN GOMEZ PALACIO</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>18934955</t>
+  </si>
+  <si>
+    <t>GERMAN ANIBAL HERNANDEZ BUELVAS</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>73133155</t>
+  </si>
+  <si>
+    <t>LESTER MARTINEZ VELILLA</t>
+  </si>
+  <si>
+    <t>73107749</t>
+  </si>
+  <si>
+    <t>HECTOR CARRASCAL TRIVIÑO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>73197070</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO DIAZ FLOREZ</t>
+  </si>
+  <si>
+    <t>1087110100</t>
+  </si>
+  <si>
+    <t>ESTIVEN GUEVARA CUERO</t>
+  </si>
+  <si>
+    <t>1007284476</t>
+  </si>
+  <si>
+    <t>LAURA CAROLINA MARTINEZ PEÑA</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>4869756</t>
+  </si>
+  <si>
+    <t>ZACHARY OLEXAI JOSE FUENTES CORREA</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>26288122</t>
+  </si>
+  <si>
+    <t>MARIELA CARRASCAL TRIVIÑO</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
@@ -71,73 +224,40 @@
     <t>JOSE GUSTAVO GONZALEZ BONILLA</t>
   </si>
   <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>4869756</t>
-  </si>
-  <si>
-    <t>ZACHARY OLEXAI JOSE FUENTES CORREA</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>CC</t>
+    <t>1007763923</t>
+  </si>
+  <si>
+    <t>DALYVIS YOJANA ESTRADA ZAMBRANO</t>
+  </si>
+  <si>
+    <t>86061432</t>
+  </si>
+  <si>
+    <t>ELKIN YEISON ARANA ALAVA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
   </si>
   <si>
     <t>1028186426</t>
@@ -146,136 +266,16 @@
     <t>WILFRIDO SINISTERRA COPETE</t>
   </si>
   <si>
-    <t>2301</t>
-  </si>
-  <si>
     <t>16501177</t>
   </si>
   <si>
     <t>SOCIMO SAA GRANJA</t>
   </si>
   <si>
-    <t>86061432</t>
-  </si>
-  <si>
-    <t>ELKIN YEISON ARANA ALAVA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1007284476</t>
-  </si>
-  <si>
-    <t>LAURA CAROLINA MARTINEZ PEÑA</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>73133155</t>
-  </si>
-  <si>
-    <t>LESTER MARTINEZ VELILLA</t>
-  </si>
-  <si>
-    <t>18934955</t>
-  </si>
-  <si>
-    <t>GERMAN ANIBAL HERNANDEZ BUELVAS</t>
-  </si>
-  <si>
     <t>8742470</t>
   </si>
   <si>
     <t>TEOFANES ANTONIO TORRENEGRA ESCOBAR</t>
-  </si>
-  <si>
-    <t>1143338170</t>
-  </si>
-  <si>
-    <t>JAMER ADRIAN GOMEZ PALACIO</t>
-  </si>
-  <si>
-    <t>26288122</t>
-  </si>
-  <si>
-    <t>MARIELA CARRASCAL TRIVIÑO</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>73352285</t>
-  </si>
-  <si>
-    <t>JESUS GONZALO VANEGAS GOMEZ</t>
-  </si>
-  <si>
-    <t>73197070</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO DIAZ FLOREZ</t>
-  </si>
-  <si>
-    <t>1087110100</t>
-  </si>
-  <si>
-    <t>ESTIVEN GUEVARA CUERO</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1007763923</t>
-  </si>
-  <si>
-    <t>DALYVIS YOJANA ESTRADA ZAMBRANO</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>73107749</t>
-  </si>
-  <si>
-    <t>HECTOR CARRASCAL TRIVIÑO</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -319,7 +319,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,7 +689,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2C1AC3-AB89-A28B-D53F-6022C775DA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADEF82E-C187-7158-FF42-7AB891C40240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,28 +1040,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285A2C04-7174-4EE4-9D44-D27754F9AC5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A08FF96-1B14-4CA9-B147-7F52F3326694}">
   <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1074,7 +1074,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1085,7 +1085,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1096,7 +1096,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1107,8 +1107,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1123,8 +1123,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1139,8 +1139,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>82</v>
       </c>
@@ -1155,8 +1155,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>83</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1227,7 +1227,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1250,7 +1250,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1273,7 +1273,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G19" s="18">
         <v>877803</v>
@@ -1296,7 +1296,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G20" s="18">
         <v>877803</v>
@@ -1319,7 +1319,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G21" s="18">
         <v>877803</v>
@@ -1342,32 +1342,32 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>92800</v>
       </c>
       <c r="G22" s="18">
-        <v>3000000</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>18</v>
@@ -1376,1180 +1376,1180 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G24" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G25" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G26" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G27" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G28" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F29" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G29" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G30" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G31" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G32" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G33" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F34" s="18">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="G34" s="18">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>36000</v>
+        <v>480000</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>36000</v>
+        <v>480000</v>
       </c>
       <c r="G36" s="18">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>36000</v>
+        <v>480000</v>
       </c>
       <c r="G37" s="18">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
-        <v>60000</v>
+        <v>480000</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>60000</v>
+        <v>103936</v>
       </c>
       <c r="G39" s="18">
-        <v>1500000</v>
+        <v>2598400</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
-        <v>60000</v>
+        <v>103936</v>
       </c>
       <c r="G40" s="18">
-        <v>1500000</v>
+        <v>2598400</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>360000</v>
+        <v>103936</v>
       </c>
       <c r="G41" s="18">
-        <v>9000000</v>
+        <v>2598400</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>480000</v>
+        <v>92800</v>
       </c>
       <c r="G42" s="18">
-        <v>12000000</v>
+        <v>2320000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="D43" s="17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
-        <v>200000</v>
+        <v>92800</v>
       </c>
       <c r="G43" s="18">
-        <v>5000000</v>
+        <v>2320000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D44" s="17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F44" s="18">
-        <v>328000</v>
+        <v>92800</v>
       </c>
       <c r="G44" s="18">
-        <v>8200000</v>
+        <v>2320000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D45" s="17" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>92800</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>2320000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G46" s="18">
-        <v>4600000</v>
+        <v>2320000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="D47" s="17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
-        <v>200000</v>
+        <v>92800</v>
       </c>
       <c r="G47" s="18">
-        <v>5000000</v>
+        <v>2320000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="D48" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
-        <v>480000</v>
+        <v>92800</v>
       </c>
       <c r="G48" s="18">
-        <v>12000000</v>
+        <v>2320000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>360000</v>
+        <v>64000</v>
       </c>
       <c r="G49" s="18">
-        <v>9000000</v>
+        <v>974000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
-        <v>328000</v>
+        <v>64000</v>
       </c>
       <c r="G50" s="18">
-        <v>8200000</v>
+        <v>974000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F51" s="18">
-        <v>184000</v>
+        <v>64000</v>
       </c>
       <c r="G51" s="18">
-        <v>4600000</v>
+        <v>974000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
-        <v>480000</v>
+        <v>64000</v>
       </c>
       <c r="G52" s="18">
-        <v>12000000</v>
+        <v>974000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F53" s="18">
-        <v>328000</v>
+        <v>64000</v>
       </c>
       <c r="G53" s="18">
-        <v>8200000</v>
+        <v>974000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
-        <v>360000</v>
+        <v>64000</v>
       </c>
       <c r="G54" s="18">
-        <v>9000000</v>
+        <v>974000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F55" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G55" s="18">
-        <v>4600000</v>
+        <v>974000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F56" s="18">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="G56" s="18">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F57" s="18">
-        <v>184000</v>
+        <v>360000</v>
       </c>
       <c r="G57" s="18">
-        <v>4600000</v>
+        <v>9000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F58" s="18">
-        <v>328000</v>
+        <v>360000</v>
       </c>
       <c r="G58" s="18">
-        <v>8200000</v>
+        <v>9000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G59" s="18">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F60" s="18">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="G60" s="18">
-        <v>12000000</v>
+        <v>3000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F61" s="18">
-        <v>328000</v>
+        <v>120000</v>
       </c>
       <c r="G61" s="18">
-        <v>8200000</v>
+        <v>3000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
-        <v>184000</v>
+        <v>120000</v>
       </c>
       <c r="G62" s="18">
-        <v>4600000</v>
+        <v>3000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F63" s="18">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="G63" s="18">
-        <v>12000000</v>
+        <v>3000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F64" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G64" s="18">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F65" s="18">
-        <v>92800</v>
+        <v>120000</v>
       </c>
       <c r="G65" s="18">
-        <v>877803</v>
+        <v>3000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F66" s="18">
-        <v>92800</v>
+        <v>120000</v>
       </c>
       <c r="G66" s="18">
-        <v>2320000</v>
+        <v>3000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F67" s="18">
-        <v>92800</v>
+        <v>120000</v>
       </c>
       <c r="G67" s="18">
-        <v>974000</v>
+        <v>3000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G68" s="18">
-        <v>974000</v>
+        <v>3000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F69" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G69" s="18">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F70" s="18">
-        <v>328000</v>
+        <v>120000</v>
       </c>
       <c r="G70" s="18">
-        <v>8200000</v>
+        <v>3000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F71" s="18">
-        <v>184000</v>
+        <v>120000</v>
       </c>
       <c r="G71" s="18">
-        <v>4600000</v>
+        <v>3000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F72" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G72" s="18">
-        <v>877803</v>
+        <v>4600000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F73" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G73" s="18">
-        <v>2320000</v>
+        <v>4600000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F74" s="18">
         <v>184000</v>
@@ -2561,202 +2561,202 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F75" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>4600000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F76" s="18">
-        <v>64000</v>
+        <v>184000</v>
       </c>
       <c r="G76" s="18">
-        <v>974000</v>
+        <v>4600000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G77" s="18">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F78" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G78" s="18">
-        <v>2320000</v>
+        <v>4600000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F79" s="18">
-        <v>200000</v>
+        <v>184000</v>
       </c>
       <c r="G79" s="18">
-        <v>5000000</v>
+        <v>4600000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
-        <v>200000</v>
+        <v>184000</v>
       </c>
       <c r="G80" s="18">
-        <v>5000000</v>
+        <v>4600000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
-        <v>64000</v>
+        <v>184000</v>
       </c>
       <c r="G81" s="18">
-        <v>974000</v>
+        <v>4600000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G82" s="18">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F83" s="18">
         <v>184000</v>
@@ -2768,113 +2768,113 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F84" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G84" s="18">
-        <v>2320000</v>
+        <v>4600000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F85" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G85" s="18">
-        <v>877803</v>
+        <v>4600000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F86" s="18">
-        <v>64000</v>
+        <v>184000</v>
       </c>
       <c r="G86" s="18">
-        <v>974000</v>
+        <v>4600000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F87" s="18">
-        <v>200000</v>
+        <v>184000</v>
       </c>
       <c r="G87" s="18">
-        <v>5000000</v>
+        <v>4600000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F88" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G88" s="18">
         <v>877803</v>
@@ -2883,536 +2883,536 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F89" s="18">
-        <v>328000</v>
+        <v>35112</v>
       </c>
       <c r="G89" s="18">
-        <v>8200000</v>
+        <v>877803</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C90" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="E90" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G90" s="18">
-        <v>2320000</v>
+        <v>877803</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F91" s="18">
-        <v>184000</v>
+        <v>35112</v>
       </c>
       <c r="G91" s="18">
-        <v>4600000</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F92" s="18">
-        <v>200000</v>
+        <v>35112</v>
       </c>
       <c r="G92" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F93" s="18">
-        <v>184000</v>
+        <v>35112</v>
       </c>
       <c r="G93" s="18">
-        <v>4600000</v>
+        <v>877803</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F94" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G94" s="18">
-        <v>974000</v>
+        <v>1300000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F95" s="18">
-        <v>92800</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F96" s="18">
-        <v>92800</v>
+        <v>60000</v>
       </c>
       <c r="G96" s="18">
-        <v>2320000</v>
+        <v>1500000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F97" s="18">
-        <v>328000</v>
+        <v>36000</v>
       </c>
       <c r="G97" s="18">
-        <v>8200000</v>
+        <v>1500000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F98" s="18">
-        <v>92800</v>
+        <v>60000</v>
       </c>
       <c r="G98" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F99" s="18">
-        <v>184000</v>
+        <v>36000</v>
       </c>
       <c r="G99" s="18">
-        <v>4600000</v>
+        <v>1500000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F100" s="18">
-        <v>92800</v>
+        <v>60000</v>
       </c>
       <c r="G100" s="18">
-        <v>2320000</v>
+        <v>1500000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F101" s="18">
-        <v>64000</v>
+        <v>36000</v>
       </c>
       <c r="G101" s="18">
-        <v>974000</v>
+        <v>1500000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F102" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G102" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F103" s="18">
-        <v>52000</v>
+        <v>328000</v>
       </c>
       <c r="G103" s="18">
-        <v>1300000</v>
+        <v>8200000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F104" s="18">
-        <v>103936</v>
+        <v>328000</v>
       </c>
       <c r="G104" s="18">
-        <v>2598400</v>
+        <v>8200000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F105" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G105" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F106" s="18">
-        <v>52000</v>
+        <v>328000</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>8200000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F107" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G107" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F108" s="18">
-        <v>103936</v>
+        <v>328000</v>
       </c>
       <c r="G108" s="18">
-        <v>2598400</v>
+        <v>8200000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="F109" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G109" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F110" s="18">
-        <v>103936</v>
+        <v>328000</v>
       </c>
       <c r="G110" s="18">
-        <v>2598400</v>
+        <v>8200000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="21" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F111" s="24">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G111" s="24">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="26"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="32" t="s">
         <v>89</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="32" t="s">
         <v>88</v>
       </c>

--- a/Data/EC/NIT-9011915140.xlsx
+++ b/Data/EC/NIT-9011915140.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D57A5D5-829F-4E7F-87A6-22A89A27D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{347B2490-63A0-404A-8DEF-1D2E7EBBB530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73302648-84EB-4FC2-A5C3-FCC8D8810BBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6612C2A-E6BA-4C53-B82E-B6C48D77CE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,64 +62,196 @@
     <t>TERRA BUNKERING SHIPPING S.A.S</t>
   </si>
   <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>240394</t>
+  </si>
+  <si>
+    <t>JOSE GUSTAVO GONZALEZ BONILLA</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>4869756</t>
+  </si>
+  <si>
+    <t>ZACHARY OLEXAI JOSE FUENTES CORREA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
+    <t>86061432</t>
+  </si>
+  <si>
+    <t>ELKIN YEISON ARANA ALAVA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1028186426</t>
+  </si>
+  <si>
+    <t>WILFRIDO SINISTERRA COPETE</t>
+  </si>
+  <si>
+    <t>16501177</t>
+  </si>
+  <si>
+    <t>SOCIMO SAA GRANJA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1143338170</t>
+  </si>
+  <si>
+    <t>JAMER ADRIAN GOMEZ PALACIO</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>18934955</t>
+  </si>
+  <si>
+    <t>GERMAN ANIBAL HERNANDEZ BUELVAS</t>
+  </si>
+  <si>
+    <t>73133155</t>
+  </si>
+  <si>
+    <t>LESTER MARTINEZ VELILLA</t>
+  </si>
+  <si>
+    <t>1007284476</t>
+  </si>
+  <si>
+    <t>LAURA CAROLINA MARTINEZ PEÑA</t>
+  </si>
+  <si>
+    <t>26288122</t>
+  </si>
+  <si>
+    <t>MARIELA CARRASCAL TRIVIÑO</t>
+  </si>
+  <si>
+    <t>8742470</t>
+  </si>
+  <si>
+    <t>TEOFANES ANTONIO TORRENEGRA ESCOBAR</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>73352285</t>
   </si>
   <si>
     <t>JESUS GONZALO VANEGAS GOMEZ</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>73197070</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO DIAZ FLOREZ</t>
+  </si>
+  <si>
+    <t>1087110100</t>
+  </si>
+  <si>
+    <t>ESTIVEN GUEVARA CUERO</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
     <t>2406</t>
   </si>
   <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1143338170</t>
-  </si>
-  <si>
-    <t>JAMER ADRIAN GOMEZ PALACIO</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>18934955</t>
-  </si>
-  <si>
-    <t>GERMAN ANIBAL HERNANDEZ BUELVAS</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>73133155</t>
-  </si>
-  <si>
-    <t>LESTER MARTINEZ VELILLA</t>
+    <t>2407</t>
   </si>
   <si>
     <t>73107749</t>
@@ -128,154 +260,22 @@
     <t>HECTOR CARRASCAL TRIVIÑO</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1007763923</t>
+  </si>
+  <si>
+    <t>DALYVIS YOJANA ESTRADA ZAMBRANO</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>2410</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>73197070</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO DIAZ FLOREZ</t>
-  </si>
-  <si>
-    <t>1087110100</t>
-  </si>
-  <si>
-    <t>ESTIVEN GUEVARA CUERO</t>
-  </si>
-  <si>
-    <t>1007284476</t>
-  </si>
-  <si>
-    <t>LAURA CAROLINA MARTINEZ PEÑA</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>4869756</t>
-  </si>
-  <si>
-    <t>ZACHARY OLEXAI JOSE FUENTES CORREA</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>26288122</t>
-  </si>
-  <si>
-    <t>MARIELA CARRASCAL TRIVIÑO</t>
-  </si>
-  <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>240394</t>
-  </si>
-  <si>
-    <t>JOSE GUSTAVO GONZALEZ BONILLA</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1007763923</t>
-  </si>
-  <si>
-    <t>DALYVIS YOJANA ESTRADA ZAMBRANO</t>
-  </si>
-  <si>
-    <t>86061432</t>
-  </si>
-  <si>
-    <t>ELKIN YEISON ARANA ALAVA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1028186426</t>
-  </si>
-  <si>
-    <t>WILFRIDO SINISTERRA COPETE</t>
-  </si>
-  <si>
-    <t>16501177</t>
-  </si>
-  <si>
-    <t>SOCIMO SAA GRANJA</t>
-  </si>
-  <si>
-    <t>8742470</t>
-  </si>
-  <si>
-    <t>TEOFANES ANTONIO TORRENEGRA ESCOBAR</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -374,7 +374,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -387,9 +389,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -589,23 +589,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,10 +633,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +689,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADEF82E-C187-7158-FF42-7AB891C40240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BE05B8-9077-BF6A-A8DE-F2B8AFAC12B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A08FF96-1B14-4CA9-B147-7F52F3326694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F368F9B-64BC-43BD-B1EB-A8174084BBEB}">
   <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1287,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
         <v>877803</v>
@@ -1310,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
         <v>877803</v>
@@ -1333,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>92800</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
         <v>877803</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>92800</v>
+        <v>120000</v>
       </c>
       <c r="G22" s="18">
         <v>877803</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>18</v>
@@ -1376,13 +1376,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1390,22 +1390,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G24" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1413,22 +1413,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G25" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1436,22 +1436,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G26" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,22 +1459,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G27" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1482,22 +1482,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G28" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,22 +1505,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G29" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1528,22 +1528,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G30" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1551,22 +1551,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1574,22 +1574,22 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G32" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G33" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1620,22 +1620,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="G34" s="18">
-        <v>12000000</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1643,22 +1643,22 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F35" s="18">
-        <v>480000</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="18">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1666,22 +1666,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
-        <v>480000</v>
+        <v>36000</v>
       </c>
       <c r="G36" s="18">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1689,22 +1689,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>480000</v>
+        <v>36000</v>
       </c>
       <c r="G37" s="18">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1712,22 +1712,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F38" s="18">
-        <v>480000</v>
+        <v>60000</v>
       </c>
       <c r="G38" s="18">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1735,22 +1735,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F39" s="18">
-        <v>103936</v>
+        <v>60000</v>
       </c>
       <c r="G39" s="18">
-        <v>2598400</v>
+        <v>1500000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1758,22 +1758,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
-        <v>103936</v>
+        <v>60000</v>
       </c>
       <c r="G40" s="18">
-        <v>2598400</v>
+        <v>1500000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,22 +1781,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F41" s="18">
-        <v>103936</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>2598400</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1804,22 +1804,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F42" s="18">
-        <v>92800</v>
+        <v>200000</v>
       </c>
       <c r="G42" s="18">
-        <v>2320000</v>
+        <v>5000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,22 +1827,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
-        <v>92800</v>
+        <v>480000</v>
       </c>
       <c r="G43" s="18">
-        <v>2320000</v>
+        <v>12000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1850,22 +1850,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F44" s="18">
-        <v>92800</v>
+        <v>360000</v>
       </c>
       <c r="G44" s="18">
-        <v>2320000</v>
+        <v>9000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1873,22 +1873,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G45" s="18">
-        <v>2320000</v>
+        <v>4600000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1896,22 +1896,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
-        <v>92800</v>
+        <v>328000</v>
       </c>
       <c r="G46" s="18">
-        <v>2320000</v>
+        <v>8200000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1919,22 +1919,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F47" s="18">
-        <v>92800</v>
+        <v>200000</v>
       </c>
       <c r="G47" s="18">
-        <v>2320000</v>
+        <v>5000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,22 +1942,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F48" s="18">
-        <v>92800</v>
+        <v>480000</v>
       </c>
       <c r="G48" s="18">
-        <v>2320000</v>
+        <v>12000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,22 +1965,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F49" s="18">
-        <v>64000</v>
+        <v>360000</v>
       </c>
       <c r="G49" s="18">
-        <v>974000</v>
+        <v>9000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1988,22 +1988,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F50" s="18">
-        <v>64000</v>
+        <v>184000</v>
       </c>
       <c r="G50" s="18">
-        <v>974000</v>
+        <v>4600000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2011,22 +2011,22 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F51" s="18">
-        <v>64000</v>
+        <v>328000</v>
       </c>
       <c r="G51" s="18">
-        <v>974000</v>
+        <v>8200000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,22 +2034,22 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>64000</v>
+        <v>200000</v>
       </c>
       <c r="G52" s="18">
-        <v>974000</v>
+        <v>5000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2057,22 +2057,22 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F53" s="18">
-        <v>64000</v>
+        <v>480000</v>
       </c>
       <c r="G53" s="18">
-        <v>974000</v>
+        <v>12000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2080,22 +2080,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F54" s="18">
-        <v>64000</v>
+        <v>360000</v>
       </c>
       <c r="G54" s="18">
-        <v>974000</v>
+        <v>9000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2103,22 +2103,22 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
-        <v>92800</v>
+        <v>184000</v>
       </c>
       <c r="G55" s="18">
-        <v>974000</v>
+        <v>4600000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2126,22 +2126,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F56" s="18">
-        <v>360000</v>
+        <v>328000</v>
       </c>
       <c r="G56" s="18">
-        <v>9000000</v>
+        <v>8200000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2149,22 +2149,22 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F57" s="18">
-        <v>360000</v>
+        <v>200000</v>
       </c>
       <c r="G57" s="18">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2172,22 +2172,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
-        <v>360000</v>
+        <v>480000</v>
       </c>
       <c r="G58" s="18">
-        <v>9000000</v>
+        <v>12000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2195,22 +2195,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
-        <v>120000</v>
+        <v>184000</v>
       </c>
       <c r="G59" s="18">
-        <v>3000000</v>
+        <v>4600000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2218,22 +2218,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>120000</v>
+        <v>328000</v>
       </c>
       <c r="G60" s="18">
-        <v>3000000</v>
+        <v>8200000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2241,22 +2241,22 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
-        <v>120000</v>
+        <v>92800</v>
       </c>
       <c r="G61" s="18">
-        <v>3000000</v>
+        <v>2320000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2264,22 +2264,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G62" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="G63" s="18">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2310,22 +2310,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
-        <v>120000</v>
+        <v>92800</v>
       </c>
       <c r="G64" s="18">
-        <v>3000000</v>
+        <v>2320000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2333,22 +2333,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>120000</v>
+        <v>92800</v>
       </c>
       <c r="G65" s="18">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,22 +2356,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F66" s="18">
-        <v>120000</v>
+        <v>184000</v>
       </c>
       <c r="G66" s="18">
-        <v>3000000</v>
+        <v>4600000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2379,22 +2379,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F67" s="18">
-        <v>120000</v>
+        <v>328000</v>
       </c>
       <c r="G67" s="18">
-        <v>3000000</v>
+        <v>8200000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2402,22 +2402,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>120000</v>
+        <v>92800</v>
       </c>
       <c r="G68" s="18">
-        <v>3000000</v>
+        <v>2320000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,22 +2425,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G69" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2448,22 +2448,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>120000</v>
+        <v>92800</v>
       </c>
       <c r="G70" s="18">
-        <v>3000000</v>
+        <v>2320000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2471,22 +2471,22 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F71" s="18">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G71" s="18">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2494,16 +2494,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F72" s="18">
         <v>184000</v>
@@ -2517,22 +2517,22 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F73" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G73" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2540,22 +2540,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F74" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G74" s="18">
-        <v>4600000</v>
+        <v>2320000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2563,22 +2563,22 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F75" s="18">
-        <v>184000</v>
+        <v>200000</v>
       </c>
       <c r="G75" s="18">
-        <v>4600000</v>
+        <v>5000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2586,22 +2586,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F76" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G76" s="18">
-        <v>4600000</v>
+        <v>2320000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2609,22 +2609,22 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F77" s="18">
-        <v>184000</v>
+        <v>64000</v>
       </c>
       <c r="G77" s="18">
-        <v>4600000</v>
+        <v>1600000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F78" s="18">
         <v>184000</v>
@@ -2655,22 +2655,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F79" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G79" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2678,22 +2678,22 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F80" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G80" s="18">
-        <v>4600000</v>
+        <v>2320000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2701,22 +2701,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F81" s="18">
-        <v>184000</v>
+        <v>200000</v>
       </c>
       <c r="G81" s="18">
-        <v>4600000</v>
+        <v>5000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,22 +2724,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F82" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G82" s="18">
-        <v>4600000</v>
+        <v>2320000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2747,22 +2747,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F83" s="18">
-        <v>184000</v>
+        <v>64000</v>
       </c>
       <c r="G83" s="18">
-        <v>4600000</v>
+        <v>1600000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2770,16 +2770,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
         <v>184000</v>
@@ -2793,22 +2793,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
-        <v>184000</v>
+        <v>328000</v>
       </c>
       <c r="G85" s="18">
-        <v>4600000</v>
+        <v>8200000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2816,22 +2816,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
-        <v>184000</v>
+        <v>92800</v>
       </c>
       <c r="G86" s="18">
-        <v>4600000</v>
+        <v>2320000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2839,22 +2839,22 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F87" s="18">
-        <v>184000</v>
+        <v>200000</v>
       </c>
       <c r="G87" s="18">
-        <v>4600000</v>
+        <v>5000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2862,22 +2862,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F88" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G88" s="18">
-        <v>877803</v>
+        <v>2320000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2885,22 +2885,22 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F89" s="18">
-        <v>35112</v>
+        <v>64000</v>
       </c>
       <c r="G89" s="18">
-        <v>877803</v>
+        <v>1600000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2908,22 +2908,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F90" s="18">
-        <v>35112</v>
+        <v>184000</v>
       </c>
       <c r="G90" s="18">
-        <v>877803</v>
+        <v>4600000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2931,22 +2931,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F91" s="18">
-        <v>35112</v>
+        <v>328000</v>
       </c>
       <c r="G91" s="18">
-        <v>877803</v>
+        <v>8200000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2954,22 +2954,22 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="E92" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F92" s="18">
-        <v>35112</v>
+        <v>92800</v>
       </c>
       <c r="G92" s="18">
-        <v>877803</v>
+        <v>2320000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2977,22 +2977,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F93" s="18">
-        <v>35112</v>
+        <v>200000</v>
       </c>
       <c r="G93" s="18">
-        <v>877803</v>
+        <v>5000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3000,22 +3000,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D94" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F94" s="18">
-        <v>52000</v>
+        <v>92800</v>
       </c>
       <c r="G94" s="18">
-        <v>1300000</v>
+        <v>2320000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3023,22 +3023,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D95" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E95" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>64000</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3046,22 +3046,22 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F96" s="18">
-        <v>60000</v>
+        <v>184000</v>
       </c>
       <c r="G96" s="18">
-        <v>1500000</v>
+        <v>4600000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3069,22 +3069,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F97" s="18">
-        <v>36000</v>
+        <v>328000</v>
       </c>
       <c r="G97" s="18">
-        <v>1500000</v>
+        <v>8200000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3092,22 +3092,22 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F98" s="18">
-        <v>60000</v>
+        <v>92800</v>
       </c>
       <c r="G98" s="18">
-        <v>1500000</v>
+        <v>2320000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3115,22 +3115,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F99" s="18">
-        <v>36000</v>
+        <v>92800</v>
       </c>
       <c r="G99" s="18">
-        <v>1500000</v>
+        <v>2320000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3138,22 +3138,22 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F100" s="18">
-        <v>60000</v>
+        <v>64000</v>
       </c>
       <c r="G100" s="18">
-        <v>1500000</v>
+        <v>1600000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F101" s="18">
-        <v>36000</v>
+        <v>184000</v>
       </c>
       <c r="G101" s="18">
-        <v>1500000</v>
+        <v>4600000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3184,22 +3184,22 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F102" s="18">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G102" s="18">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3207,22 +3207,22 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F103" s="18">
-        <v>328000</v>
+        <v>103936</v>
       </c>
       <c r="G103" s="18">
-        <v>8200000</v>
+        <v>2598400</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3230,22 +3230,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F104" s="18">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G104" s="18">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3253,22 +3253,22 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F105" s="18">
-        <v>328000</v>
+        <v>52000</v>
       </c>
       <c r="G105" s="18">
-        <v>8200000</v>
+        <v>1300000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3276,22 +3276,22 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F106" s="18">
-        <v>328000</v>
+        <v>103936</v>
       </c>
       <c r="G106" s="18">
-        <v>8200000</v>
+        <v>2598400</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3299,22 +3299,22 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F107" s="18">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G107" s="18">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3322,22 +3322,22 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F108" s="18">
-        <v>328000</v>
+        <v>52000</v>
       </c>
       <c r="G108" s="18">
-        <v>8200000</v>
+        <v>1300000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3345,22 +3345,22 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F109" s="18">
-        <v>328000</v>
+        <v>103936</v>
       </c>
       <c r="G109" s="18">
-        <v>8200000</v>
+        <v>2598400</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3368,22 +3368,22 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F110" s="18">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G110" s="18">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3391,22 +3391,22 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="21" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D111" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E111" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="F111" s="24">
-        <v>328000</v>
+        <v>184000</v>
       </c>
       <c r="G111" s="24">
-        <v>8200000</v>
+        <v>4600000</v>
       </c>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>

--- a/Data/EC/NIT-9011915140.xlsx
+++ b/Data/EC/NIT-9011915140.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347B2490-63A0-404A-8DEF-1D2E7EBBB530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4FFF88-2F40-4AB2-B772-CFACF2ACCE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6612C2A-E6BA-4C53-B82E-B6C48D77CE57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{236C654C-BD5C-40BD-8F2B-5B0D14C7384A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -389,7 +387,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -583,29 +583,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,19 +624,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BE05B8-9077-BF6A-A8DE-F2B8AFAC12B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF615011-FE99-53CC-78B4-782A3DDCE305}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F368F9B-64BC-43BD-B1EB-A8174084BBEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C11994-9529-49D6-A333-583E99237298}">
   <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1063,49 +1069,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1113,7 +1119,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011915140</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>16000880</v>
       </c>
@@ -1214,18 +1220,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>35112</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>877803</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1237,18 +1243,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>35112</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>877803</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1260,18 +1266,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>35112</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>877803</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1283,18 +1289,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>35112</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>877803</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1306,18 +1312,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>35112</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>877803</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1329,18 +1335,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>877803</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1352,18 +1358,18 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>120000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>877803</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1375,18 +1381,18 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>120000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>877803</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1398,18 +1404,18 @@
       <c r="D24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>120000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>877803</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1421,18 +1427,18 @@
       <c r="D25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>120000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>877803</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1444,18 +1450,18 @@
       <c r="D26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>120000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>877803</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1467,18 +1473,18 @@
       <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>120000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>877803</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1490,18 +1496,18 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>120000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>877803</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1513,18 +1519,18 @@
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>120000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>877803</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1536,18 +1542,18 @@
       <c r="D30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>120000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>877803</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1559,18 +1565,18 @@
       <c r="D31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>120000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>877803</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1582,18 +1588,18 @@
       <c r="D32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>120000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>877803</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1605,18 +1611,18 @@
       <c r="D33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>120000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>877803</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1628,18 +1634,18 @@
       <c r="D34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>120000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>877803</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1651,18 +1657,18 @@
       <c r="D35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>36000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1500000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1674,18 +1680,18 @@
       <c r="D36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>36000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1500000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1697,18 +1703,18 @@
       <c r="D37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>36000</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1500000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1720,18 +1726,18 @@
       <c r="D38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>60000</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1500000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1743,18 +1749,18 @@
       <c r="D39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>60000</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1500000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1766,18 +1772,18 @@
       <c r="D40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>60000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>1500000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1789,18 +1795,18 @@
       <c r="D41" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>46400</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1160000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1812,18 +1818,18 @@
       <c r="D42" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>200000</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>5000000</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1835,18 +1841,18 @@
       <c r="D43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>480000</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>12000000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1858,18 +1864,18 @@
       <c r="D44" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>360000</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>9000000</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1881,18 +1887,18 @@
       <c r="D45" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>184000</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>4600000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1904,18 +1910,18 @@
       <c r="D46" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>328000</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>8200000</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1927,18 +1933,18 @@
       <c r="D47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>200000</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>5000000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1950,18 +1956,18 @@
       <c r="D48" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>480000</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>12000000</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1973,18 +1979,18 @@
       <c r="D49" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>360000</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>9000000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1996,18 +2002,18 @@
       <c r="D50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>184000</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>4600000</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2019,18 +2025,18 @@
       <c r="D51" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>328000</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>8200000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2042,18 +2048,18 @@
       <c r="D52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>200000</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>5000000</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2065,18 +2071,18 @@
       <c r="D53" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>480000</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>12000000</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2088,18 +2094,18 @@
       <c r="D54" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>360000</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>9000000</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2111,18 +2117,18 @@
       <c r="D55" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>184000</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>4600000</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2134,18 +2140,18 @@
       <c r="D56" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>328000</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>8200000</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2157,18 +2163,18 @@
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>200000</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>5000000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2180,18 +2186,18 @@
       <c r="D58" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>480000</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>12000000</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2203,18 +2209,18 @@
       <c r="D59" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>184000</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>4600000</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2226,18 +2232,18 @@
       <c r="D60" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>328000</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>8200000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2249,18 +2255,18 @@
       <c r="D61" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>92800</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>2320000</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2272,18 +2278,18 @@
       <c r="D62" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>200000</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>5000000</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2295,18 +2301,18 @@
       <c r="D63" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>480000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>12000000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2318,18 +2324,18 @@
       <c r="D64" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>92800</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>2320000</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2341,18 +2347,18 @@
       <c r="D65" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>92800</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>1600000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2364,18 +2370,18 @@
       <c r="D66" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>184000</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>4600000</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2387,18 +2393,18 @@
       <c r="D67" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>328000</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>8200000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2410,18 +2416,18 @@
       <c r="D68" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>92800</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>2320000</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2433,18 +2439,18 @@
       <c r="D69" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>200000</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>5000000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2456,18 +2462,18 @@
       <c r="D70" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>92800</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="19">
         <v>2320000</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2479,18 +2485,18 @@
       <c r="D71" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>64000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>1600000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2502,18 +2508,18 @@
       <c r="D72" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>184000</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>4600000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2525,18 +2531,18 @@
       <c r="D73" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>328000</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>8200000</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2548,18 +2554,18 @@
       <c r="D74" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>92800</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="19">
         <v>2320000</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2571,18 +2577,18 @@
       <c r="D75" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>200000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>5000000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2594,18 +2600,18 @@
       <c r="D76" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>92800</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="19">
         <v>2320000</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2617,18 +2623,18 @@
       <c r="D77" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>64000</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1600000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2640,18 +2646,18 @@
       <c r="D78" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>184000</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>4600000</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2663,18 +2669,18 @@
       <c r="D79" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>328000</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>8200000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2686,18 +2692,18 @@
       <c r="D80" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>92800</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>2320000</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2709,18 +2715,18 @@
       <c r="D81" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>200000</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>5000000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2732,18 +2738,18 @@
       <c r="D82" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>92800</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>2320000</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2755,18 +2761,18 @@
       <c r="D83" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>64000</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>1600000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2778,18 +2784,18 @@
       <c r="D84" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>184000</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>4600000</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2801,18 +2807,18 @@
       <c r="D85" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>328000</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="19">
         <v>8200000</v>
       </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2824,18 +2830,18 @@
       <c r="D86" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>92800</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>2320000</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2847,18 +2853,18 @@
       <c r="D87" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>200000</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>5000000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2870,18 +2876,18 @@
       <c r="D88" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>92800</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="19">
         <v>2320000</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2893,18 +2899,18 @@
       <c r="D89" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>64000</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="19">
         <v>1600000</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2916,18 +2922,18 @@
       <c r="D90" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>184000</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>4600000</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2939,18 +2945,18 @@
       <c r="D91" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>328000</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>8200000</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2962,18 +2968,18 @@
       <c r="D92" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>92800</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="19">
         <v>2320000</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2985,18 +2991,18 @@
       <c r="D93" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>200000</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>5000000</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3008,18 +3014,18 @@
       <c r="D94" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>92800</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="19">
         <v>2320000</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3031,18 +3037,18 @@
       <c r="D95" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="19">
         <v>64000</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="19">
         <v>1600000</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3054,18 +3060,18 @@
       <c r="D96" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="19">
         <v>184000</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="19">
         <v>4600000</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3077,18 +3083,18 @@
       <c r="D97" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>328000</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>8200000</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3100,18 +3106,18 @@
       <c r="D98" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>92800</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>2320000</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3123,18 +3129,18 @@
       <c r="D99" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="19">
         <v>92800</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="19">
         <v>2320000</v>
       </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3146,18 +3152,18 @@
       <c r="D100" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="19">
         <v>64000</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="19">
         <v>1600000</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3169,18 +3175,18 @@
       <c r="D101" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>184000</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>4600000</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3192,18 +3198,18 @@
       <c r="D102" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="19">
         <v>184000</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="19">
         <v>4600000</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3215,18 +3221,18 @@
       <c r="D103" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="19">
         <v>103936</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="19">
         <v>2598400</v>
       </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3238,18 +3244,18 @@
       <c r="D104" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="19">
         <v>184000</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="19">
         <v>4600000</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3261,18 +3267,18 @@
       <c r="D105" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="19">
         <v>52000</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="19">
         <v>1300000</v>
       </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3284,18 +3290,18 @@
       <c r="D106" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="19">
         <v>103936</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="19">
         <v>2598400</v>
       </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3307,18 +3313,18 @@
       <c r="D107" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="19">
         <v>184000</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="19">
         <v>4600000</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3330,18 +3336,18 @@
       <c r="D108" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="19">
         <v>52000</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G108" s="19">
         <v>1300000</v>
       </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3353,18 +3359,18 @@
       <c r="D109" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="19">
         <v>103936</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="19">
         <v>2598400</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3376,47 +3382,47 @@
       <c r="D110" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="19">
         <v>184000</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="19">
         <v>4600000</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" s="22" t="s">
+      <c r="B111" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="24">
+      <c r="F111" s="26">
         <v>184000</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="26">
         <v>4600000</v>
       </c>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="26"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="28"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C116" s="32"/>
+      <c r="C116" s="34"/>
       <c r="H116" s="1" t="s">
         <v>89</v>
       </c>
@@ -3424,10 +3430,10 @@
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C117" s="32"/>
+      <c r="C117" s="34"/>
       <c r="H117" s="1" t="s">
         <v>90</v>
       </c>
